--- a/Parallel Gospel.xlsx
+++ b/Parallel Gospel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="4672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="4673">
   <si>
     <t>and were continually in the temple blessing God.</t>
   </si>
@@ -14129,6 +14129,9 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>thieves crucified</t>
   </si>
 </sst>
 </file>
@@ -14628,8 +14631,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q2770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2616" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51986,7 +51990,7 @@
     </row>
     <row r="2620" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2620" t="s">
-        <v>4660</v>
+        <v>4672</v>
       </c>
       <c r="B2620">
         <v>27</v>
